--- a/excels/history.xlsx
+++ b/excels/history.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
+    <t>30-03-2018</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>23-02-2018</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>12-03-2018</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
 </sst>
 </file>
@@ -391,26 +391,20 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excels/history.xlsx
+++ b/excels/history.xlsx
@@ -14,24 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>30-03-2018</t>
+    <t>08-05-2018</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>23-02-2018</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -367,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,42 +366,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/excels/history.xlsx
+++ b/excels/history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>08-05-2018</t>
   </si>
@@ -23,6 +23,27 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>03-05-2018</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25-04-2018</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>17-04-2018</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>16-05-2018</t>
   </si>
 </sst>
 </file>
@@ -59,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -358,15 +380,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -374,14 +396,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
